--- a/4-Te-dhenat-per-kataster/regjistri/Regjistri-i-fletëparaqtjës-1.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/Regjistri-i-fletëparaqtjës-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ferizaj\Ferizaj\Ingjinierike\2325-0-Ferzaj-Naimi\4-Te-dhenat-per-kataster\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ferizaj\Ferizaj\Ingjinierike\733-20-FER-AGIMI\4-Te-dhenat-per-kataster\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Nr</t>
   </si>
@@ -74,22 +74,19 @@
     <t>Ferizaj</t>
   </si>
   <si>
-    <t>O-72217092-02325-2-____-____</t>
-  </si>
-  <si>
-    <t>B+P+3+NK</t>
-  </si>
-  <si>
-    <t>Rr.12 Qershori</t>
-  </si>
-  <si>
-    <t>Naim(Zenel)Ahmeti</t>
-  </si>
-  <si>
-    <t>1012169341</t>
-  </si>
-  <si>
     <t>Banim Individual</t>
+  </si>
+  <si>
+    <t>O-72217092-00733-20-____-____</t>
+  </si>
+  <si>
+    <t>P+NK</t>
+  </si>
+  <si>
+    <t>Rr. Eqrem Çabej</t>
+  </si>
+  <si>
+    <t>Agim</t>
   </si>
 </sst>
 </file>
@@ -322,7 +319,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -380,6 +377,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,8 +709,8 @@
   </sheetPr>
   <dimension ref="B1:P667"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,22 +734,22 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="2:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -779,11 +779,11 @@
       <c r="J3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="15" t="s">
         <v>11</v>
       </c>
@@ -802,29 +802,27 @@
         <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9">
         <v>275.38</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>17</v>
+      <c r="H4" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>19</v>
       </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="12" t="s">
         <v>8</v>
       </c>

--- a/4-Te-dhenat-per-kataster/regjistri/Regjistri-i-fletëparaqtjës-1.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/Regjistri-i-fletëparaqtjës-1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Nr</t>
   </si>
@@ -80,13 +80,19 @@
     <t>O-72217092-00733-20-____-____</t>
   </si>
   <si>
-    <t>P+NK</t>
-  </si>
-  <si>
     <t>Rr. Eqrem Çabej</t>
   </si>
   <si>
-    <t>Agim</t>
+    <t>P+1</t>
+  </si>
+  <si>
+    <t>Agim (Metë) Behluli</t>
+  </si>
+  <si>
+    <t>2004513927</t>
+  </si>
+  <si>
+    <t>HASHANË</t>
   </si>
 </sst>
 </file>
@@ -709,8 +715,8 @@
   </sheetPr>
   <dimension ref="B1:P667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,15 +811,17 @@
         <v>16</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="9">
         <v>275.38</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J4" s="20" t="s">
         <v>15</v>
       </c>
@@ -822,7 +830,9 @@
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="O4" s="12" t="s">
         <v>8</v>
       </c>

--- a/4-Te-dhenat-per-kataster/regjistri/Regjistri-i-fletëparaqtjës-1.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/Regjistri-i-fletëparaqtjës-1.xlsx
@@ -715,8 +715,8 @@
   </sheetPr>
   <dimension ref="B1:P667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="9">
-        <v>275.38</v>
+        <v>122.22</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>17</v>

--- a/4-Te-dhenat-per-kataster/regjistri/Regjistri-i-fletëparaqtjës-1.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/Regjistri-i-fletëparaqtjës-1.xlsx
@@ -77,9 +77,6 @@
     <t>Banim Individual</t>
   </si>
   <si>
-    <t>O-72217092-00733-20-____-____</t>
-  </si>
-  <si>
     <t>Rr. Eqrem Çabej</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>HASHANË</t>
+  </si>
+  <si>
+    <t>O-72217092-03227-0-____-____</t>
   </si>
 </sst>
 </file>
@@ -715,8 +715,8 @@
   </sheetPr>
   <dimension ref="B1:P667"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,30 +808,30 @@
         <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9">
         <v>122.22</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>8</v>
